--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7938,7 +7939,6 @@
           <t>创金合信汇益纯债一年定期开放债券C</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -7970,7 +7970,6 @@
           <t>创金合信汇誉纯债六个月定期开放债券C</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>90.16</t>
@@ -7986,6 +7985,8294 @@
       </c>
       <c r="H113" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H218"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.5210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.3487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>101.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.7613</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>139.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6983</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.3458</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.9862</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.5279</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.4367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.3093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.2272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.2167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.0286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.9603</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.7922</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>55.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.7411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.5030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.4857</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.2487</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>3.1294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>55.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.9645</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.6838</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.6567</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.4871</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.4671</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.4524</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.4459</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.4341</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.4151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2.3757</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.3336</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>42.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.2281</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.9958</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.9217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.8301</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.8012</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>46.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.7988</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.7903</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.7763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.6989</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.6715</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.6420</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.5079</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.3957</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.3823</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.3304</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.3259</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.2831</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.2125</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.0702</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1.0380</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1.0344</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>15.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1.0230</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.0067</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>1.0066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.9891</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.9452</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.9072</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.8424</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.8284</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.8248</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.8246</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.8187</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.8127</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.7753</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.7684</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.7429</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.6650</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.6564</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.5236</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.5224</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.5193</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.29</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.5074</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.4997</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.4866</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.4674</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.4278</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.3912</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.3739</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>54.32</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.2528</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.2282</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>61.46</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>49.20</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16278,4 +16279,9476 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H249"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0041</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.2845</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>117.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.0711</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.8213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.6388</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.5139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.4539</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.1796</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009318</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>106.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.1401</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.8413</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.7919</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.5986</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.4776</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>96.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.2188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.1633</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>58.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.0825</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.0423</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.8479</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>52.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.8439</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.7779</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.7378</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.6381</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010289</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城产业趋势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.4470</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2.3645</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.3205</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2.3198</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2.1849</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.1823</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>35.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2.0847</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.9799</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>42.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.8653</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.8641</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.7376</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.5794</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.5775</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.5636</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.5569</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.5120</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1.4458</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1.4439</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>26.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1.3660</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.3123</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1.2916</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1.2327</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1.1830</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>1.1821</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1.1673</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1.1457</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1.1247</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1.1240</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>1.1058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1.0801</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1.0628</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1.0545</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1.0543</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>1.0530</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.9542</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.9170</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.8927</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15.85</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.8305</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.8007</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.7449</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.7380</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.7323</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>377016</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根亚太优势混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.7257</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009319</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.7105</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001874</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>前海开源沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.6955</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.6784</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.6615</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.6209</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.6071</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.5964</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.5266</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.5082</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.4602</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.4176</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.2843</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>74.15</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>80.95</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>002443</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>前海开源沪港深龙头精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>160924</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>大成恒生指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>大成港股精选混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>43.76</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H233" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>163813</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>中银全球策略(QDII-FOF)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H240" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H242" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H243" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H244" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H245" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25751,4 +25752,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>248</v>
+      </c>
+      <c r="D2" t="n">
+        <v>205.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>217</v>
+      </c>
+      <c r="D3" t="n">
+        <v>226.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>101.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>84</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.98999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25760,7 +25761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25771,17 +25772,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25791,14 +25812,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>205.29</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -25807,14 +25850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>217</v>
-      </c>
-      <c r="D3" t="n">
-        <v>226.02</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.7992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -25823,14 +25888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>112</v>
-      </c>
-      <c r="D4" t="n">
-        <v>101.23</v>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -25839,13 +25926,4977 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0700</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.5557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.2874</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2455</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.1201</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159920</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>116.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.8285</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1234</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9528</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>55.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8872</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4457</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3943</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3695</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3631</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2450</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2321</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2242</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9316</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9125</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9031</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8582</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8360</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8306</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7741</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7615</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7565</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6731</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6579</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5822</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5800</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5063</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>513660</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏沪港通恒生ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3690</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3616</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009411</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>513600</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方恒生ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>164705</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>95.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>517010</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达中证沪港深500交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010789</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富恒生指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>501309</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>国泰恒生港股通指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>131</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>248</v>
+      </c>
+      <c r="D3" t="n">
+        <v>205.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>217</v>
+      </c>
+      <c r="D4" t="n">
+        <v>226.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>101.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>84</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>65.98999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30795,7 +30796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30806,17 +30807,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30826,14 +30847,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>103.24</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.1327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -30842,14 +30885,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>248</v>
-      </c>
-      <c r="D3" t="n">
-        <v>205.29</v>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -30858,14 +30923,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>217</v>
-      </c>
-      <c r="D4" t="n">
-        <v>226.02</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -30874,14 +30961,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>112</v>
-      </c>
-      <c r="D5" t="n">
-        <v>101.23</v>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -30890,13 +30999,5371 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2351</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9948</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8681</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8218</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5697</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1691</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1283</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0868</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8257</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8205</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6557</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6540</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6330</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5981</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5610</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5527</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5349</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012225</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005612</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实核心优势股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3263</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3254</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>100.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.21</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012226</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>嘉实优势精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>103.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>248</v>
+      </c>
+      <c r="D4" t="n">
+        <v>205.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>217</v>
+      </c>
+      <c r="D5" t="n">
+        <v>226.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>112</v>
+      </c>
+      <c r="D6" t="n">
+        <v>101.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>84</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>65.98999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36246,7 +36247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36257,17 +36258,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -36277,14 +36298,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>142</v>
-      </c>
-      <c r="D2" t="n">
-        <v>68.13</v>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>627.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.5737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -36293,14 +36336,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>103.24</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.0805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -36309,14 +36374,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>205.29</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.6592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -36325,14 +36412,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>217</v>
-      </c>
-      <c r="D5" t="n">
-        <v>226.02</v>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -36341,14 +36450,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>112</v>
-      </c>
-      <c r="D6" t="n">
-        <v>101.23</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>121.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -36357,13 +36488,7169 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0297</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.2362</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9537</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5667</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5393</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5265</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4559</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4421</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3608</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1464</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9823</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9711</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>513550</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9626</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9491</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9332</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8597</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8592</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7677</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7626</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7500</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011296</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7368</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>27.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6558</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6422</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5897</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4161</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3307</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合型集合资产管理计划（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方中证香港科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011690</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商品质发现混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>96.34</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>97.33</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002214</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中海沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011297</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>汇添富优势行业一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>011691</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>招商品质发现混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>39.74</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>014971</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华安红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>190</v>
+      </c>
+      <c r="D2" t="n">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>142</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>103.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>226.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>84</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>65.98999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02269-药明生物.xlsx
+++ b/数据整理/stocks/港股/02269-药明生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D2" t="n">
-        <v>105.5</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D3" t="n">
-        <v>68.13</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D4" t="n">
-        <v>103.24</v>
+        <v>68.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="D5" t="n">
-        <v>205.29</v>
+        <v>103.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D6" t="n">
-        <v>226.02</v>
+        <v>205.29</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
-        <v>101.23</v>
+        <v>226.02</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>112</v>
+      </c>
+      <c r="D8" t="n">
+        <v>101.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>84</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>65.98999999999999</v>
       </c>
     </row>
@@ -600,6 +617,6368 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H167"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005827</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>532.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.2619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4399</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银瑞和三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3305</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1599</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2630</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8983</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012186</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009909</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7804</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6861</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5582</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4906</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009869</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008546</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3793</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3530</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012187</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2359</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>862001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 人民币</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>862011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）A 美元</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>862012</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光香港精选混合（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009152</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014114</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安香港精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009870</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013559</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014139</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达高质量增长量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009910</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实动力先锋混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>860027</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014539</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华安优势精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014115</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发沪港深医药混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014356</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015755</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>517350</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009781</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方产业优势两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011917</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>513900</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安CES港股通精选100ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159750</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商中证香港科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012809</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014357</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长信企业成长三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014140</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达高质量增长量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>159723</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>860007</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大阳光价值30个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014708</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009153</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南方瑞盛三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>970094</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159712</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰中证港股通50ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011901</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014540</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安优势精选混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>513990</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>招商上证港股通ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>970093</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>517270</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>浦银安盛中证沪港深科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013897</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013898</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>德邦港股通成长精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005255</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>159788</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>易方达中证港股通中国100ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>013560</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011918</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>山西证券品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>012560</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012559</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>011902</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南方竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013093</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>014709</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>天弘臻选健康混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>160646</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>鹏华中证沪港深科技龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>013224</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>浦银安盛港股通量化混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013094</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深科技龙头指数C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>970095</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>015116</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>015117</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>汇添富大盘核心资产混合D</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7869,7 +14248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13319,7 +19698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18353,7 +24732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27825,7 +34204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36113,7 +42492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40411,7 +46790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
